--- a/Perk_data/data/classic/classic_weapons_perks.xlsx
+++ b/Perk_data/data/classic/classic_weapons_perks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D6FEBB-B49A-48B9-9D9D-E0A9ACE5597A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B7BC76-F127-4829-B5B0-382DD2F9188B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="71">
   <si>
     <t>Item</t>
   </si>
@@ -114,9 +114,6 @@
     <t>7.50%-DAMAGE</t>
   </si>
   <si>
-    <t>4.50%-CRITICAL_HIT_CHANCE</t>
-  </si>
-  <si>
     <t>20%-CRITICAL_HIT_DAMAGE</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>6%-DAMAGE</t>
   </si>
   <si>
-    <t>1.50%-CRITICAL_HIT_CHANCE</t>
-  </si>
-  <si>
     <t>10%-CRITICAL_HIT_DAMAGE</t>
   </si>
   <si>
@@ -247,6 +241,15 @@
   </si>
   <si>
     <t>-DAMAGE</t>
+  </si>
+  <si>
+    <t>1%-CRITICAL_HIT_CHANCE</t>
+  </si>
+  <si>
+    <t>galting_gun</t>
+  </si>
+  <si>
+    <t>3%-COOL_DOWN</t>
   </si>
 </sst>
 </file>
@@ -325,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -406,11 +409,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -422,7 +451,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -431,71 +459,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EA9DB"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EA9DB"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EA9DB"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EA9DB"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -833,11 +809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743A64AC-5DCF-4F6E-ADBB-4FDAAA62D2C9}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,10 +844,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -879,13 +855,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -913,10 +889,10 @@
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -924,7 +900,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>24</v>
@@ -935,10 +911,10 @@
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -946,7 +922,7 @@
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>24</v>
@@ -957,21 +933,21 @@
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
+      <c r="A12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
@@ -979,10 +955,10 @@
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
@@ -990,10 +966,10 @@
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>10</v>
@@ -1001,10 +977,10 @@
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1023,10 +999,10 @@
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>10</v>
@@ -1037,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>10</v>
@@ -1048,7 +1024,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>10</v>
@@ -1059,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>10</v>
@@ -1070,7 +1046,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>10</v>
@@ -1081,7 +1057,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>10</v>
@@ -1089,41 +1065,41 @@
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="3" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>41</v>
+      <c r="B26" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>15</v>
@@ -1134,7 +1110,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>15</v>
@@ -1142,7 +1118,7 @@
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>43</v>
@@ -1153,21 +1129,21 @@
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>34</v>
+      <c r="A30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>15</v>
@@ -1175,21 +1151,21 @@
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>34</v>
+      <c r="A32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
@@ -1197,10 +1173,10 @@
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>15</v>
@@ -1211,7 +1187,7 @@
         <v>66</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>15</v>
@@ -1219,10 +1195,10 @@
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>15</v>
@@ -1230,32 +1206,32 @@
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>52</v>
+      <c r="A37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>16</v>
+      <c r="A38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
@@ -1263,21 +1239,21 @@
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>58</v>
+      <c r="A40" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>15</v>
@@ -1285,21 +1261,21 @@
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B42" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>15</v>
@@ -1310,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>15</v>
@@ -1318,53 +1294,51 @@
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="B46" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="15"/>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="A48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="9"/>
       <c r="C48" s="7" t="s">
         <v>17</v>
       </c>
@@ -1374,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>17</v>
@@ -1382,109 +1356,109 @@
     </row>
     <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>35</v>
+      <c r="B52" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="C58" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>53</v>
+      <c r="A59" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>17</v>
@@ -1492,96 +1466,140 @@
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B62" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
+      <c r="C62" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="6" t="s">
+      <c r="B64" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="8" t="s">
+      <c r="B65" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B66" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
+      <c r="C66" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
+      <c r="B67" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="15" t="s">
+      <c r="B68" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="B70" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="16" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C64" xr:uid="{743A64AC-5DCF-4F6E-ADBB-4FDAAA62D2C9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C67">
-      <sortCondition sortBy="cellColor" ref="C1:C64" dxfId="1"/>
+  <autoFilter ref="A1:C66" xr:uid="{743A64AC-5DCF-4F6E-ADBB-4FDAAA62D2C9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C69">
+      <sortCondition sortBy="cellColor" ref="C1:C66" dxfId="2"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Perk_data/data/classic/classic_weapons_perks.xlsx
+++ b/Perk_data/data/classic/classic_weapons_perks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BECC7BC-A265-4C0D-8B2B-FE096E64B6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5E5A96-7D96-4E29-BAB2-32C54702CAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06533344-5EE5-44BB-AD98-C040D80C4596}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="70">
   <si>
     <t>Item</t>
   </si>
@@ -72,21 +72,12 @@
     <t>all_weapons</t>
   </si>
   <si>
-    <t>9_CARRONADE_DAMAGE</t>
-  </si>
-  <si>
     <t>grenade_launcher</t>
   </si>
   <si>
     <t>mine</t>
   </si>
   <si>
-    <t>6_CARRONADE_DAMAGE</t>
-  </si>
-  <si>
-    <t>3_CARRONADE_DAMAGE</t>
-  </si>
-  <si>
     <t>10%-RANGE</t>
   </si>
   <si>
@@ -244,6 +235,18 @@
   </si>
   <si>
     <t>all_missiles</t>
+  </si>
+  <si>
+    <t>3-BASE_STAT</t>
+  </si>
+  <si>
+    <t>6-BASE_STAT</t>
+  </si>
+  <si>
+    <t>9-BASE_STAT</t>
+  </si>
+  <si>
+    <t>%-BASE_STAT</t>
   </si>
 </sst>
 </file>
@@ -449,16 +452,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -775,11 +769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743A64AC-5DCF-4F6E-ADBB-4FDAAA62D2C9}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,10 +796,10 @@
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -813,10 +807,10 @@
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
@@ -824,10 +818,10 @@
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -835,10 +829,10 @@
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
@@ -846,10 +840,10 @@
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -857,10 +851,10 @@
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
@@ -871,7 +865,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
@@ -882,18 +876,18 @@
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>63</v>
+      <c r="B10" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
@@ -901,7 +895,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4" t="s">
@@ -910,10 +904,10 @@
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>2</v>
@@ -921,10 +915,10 @@
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>2</v>
@@ -932,10 +926,10 @@
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>2</v>
@@ -943,10 +937,10 @@
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>2</v>
@@ -954,10 +948,10 @@
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>2</v>
@@ -968,7 +962,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>2</v>
@@ -979,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>2</v>
@@ -987,10 +981,10 @@
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>2</v>
@@ -998,10 +992,10 @@
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>2</v>
@@ -1009,10 +1003,10 @@
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>2</v>
@@ -1032,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>2</v>
@@ -1043,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>2</v>
@@ -1054,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>2</v>
@@ -1074,7 +1068,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>3</v>
@@ -1085,18 +1079,18 @@
         <v>9</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>64</v>
+      <c r="B29" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>3</v>
@@ -1107,7 +1101,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>3</v>
@@ -1115,10 +1109,10 @@
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>3</v>
@@ -1126,10 +1120,10 @@
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>3</v>
@@ -1137,32 +1131,32 @@
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>57</v>
+      <c r="A34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>39</v>
+      <c r="A35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>3</v>
@@ -1170,10 +1164,10 @@
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>3</v>
@@ -1181,10 +1175,10 @@
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>3</v>
@@ -1192,10 +1186,10 @@
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>3</v>
@@ -1203,21 +1197,21 @@
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>14</v>
+      <c r="B40" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>3</v>
@@ -1225,10 +1219,10 @@
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>3</v>
@@ -1236,10 +1230,10 @@
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>3</v>
@@ -1247,32 +1241,32 @@
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>46</v>
+      <c r="B44" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>57</v>
+      <c r="B45" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>3</v>
@@ -1283,7 +1277,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>3</v>
@@ -1291,10 +1285,10 @@
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>3</v>
@@ -1302,10 +1296,10 @@
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>3</v>
@@ -1317,7 +1311,7 @@
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1325,21 +1319,21 @@
         <v>9</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>25</v>
+      <c r="B51" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1347,10 +1341,10 @@
         <v>9</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1358,109 +1352,109 @@
         <v>10</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>62</v>
+      <c r="A61" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1468,43 +1462,43 @@
         <v>5</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1512,10 +1506,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1523,10 +1517,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1534,43 +1528,54 @@
         <v>4</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
